--- a/업무자동화/복사붙여넣기_자동화/파마킹-origin-result.xlsx
+++ b/업무자동화/복사붙여넣기_자동화/파마킹-origin-result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="31">
   <si>
     <t>일자</t>
   </si>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U87"/>
+  <dimension ref="A3:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4351,7 +4351,7 @@
         <v>6801600</v>
       </c>
       <c r="K73" s="17">
-        <f t="shared" ref="K73:K76" si="101">E73*0.45</f>
+        <f t="shared" ref="K73:K79" si="101">E73*0.45</f>
         <v>0</v>
       </c>
       <c r="L73" s="24"/>
@@ -4433,7 +4433,9 @@
       <c r="T75" s="26"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="9">
+        <v>44013</v>
+      </c>
       <c r="B76" s="10" t="s">
         <v>13</v>
       </c>
@@ -4448,99 +4450,219 @@
         <v>7800</v>
       </c>
       <c r="F76" s="12">
-        <f t="shared" ref="F76" si="104">E76*0.85</f>
+        <f t="shared" ref="F76:F79" si="104">E76*0.85</f>
         <v>6630</v>
       </c>
       <c r="G76" s="13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H76" s="14">
-        <f t="shared" ref="H76" si="105">-(F76/E76-1)</f>
+        <f t="shared" ref="H76:H79" si="105">-(F76/E76-1)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="I76" s="15">
-        <f t="shared" ref="I76" si="106">SUM(G76*F76)</f>
-        <v>994500</v>
+        <f t="shared" ref="I76:I79" si="106">SUM(G76*F76)</f>
+        <v>1657500</v>
       </c>
       <c r="J76" s="16">
         <f t="shared" ref="J76" si="107">SUM(J75+I76)</f>
-        <v>994500</v>
+        <v>1657500</v>
       </c>
       <c r="K76" s="17">
         <f t="shared" si="101"/>
         <v>3510</v>
       </c>
       <c r="L76" s="14">
-        <f t="shared" ref="L76" si="108">-(K76/E76-1)</f>
+        <f t="shared" ref="L76:L79" si="108">-(K76/E76-1)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="M76" s="18">
-        <f t="shared" ref="M76" si="109">SUM(K76*G76)</f>
-        <v>526500</v>
+        <f t="shared" ref="M76:M79" si="109">SUM(K76*G76)</f>
+        <v>877500</v>
       </c>
       <c r="N76" s="19">
-        <f t="shared" ref="N76" si="110">SUM(I76-M76)</f>
-        <v>468000</v>
+        <f t="shared" ref="N76:N79" si="110">SUM(I76-M76)</f>
+        <v>780000</v>
       </c>
       <c r="O76" s="20"/>
       <c r="P76" s="18">
         <f t="shared" ref="P76" si="111">SUM(P75+M76)</f>
-        <v>526500</v>
+        <v>877500</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="19"/>
+      <c r="A77" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="11">
+        <f>260*90</f>
+        <v>23400</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" si="104"/>
+        <v>19890</v>
+      </c>
+      <c r="G77" s="13">
+        <v>20</v>
+      </c>
+      <c r="H77" s="14">
+        <f t="shared" si="105"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="106"/>
+        <v>397800</v>
+      </c>
+      <c r="J77" s="16">
+        <f>SUM(J76+I77)</f>
+        <v>2055300</v>
+      </c>
+      <c r="K77" s="17">
+        <f t="shared" si="101"/>
+        <v>10530</v>
+      </c>
+      <c r="L77" s="14">
+        <f t="shared" si="108"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M77" s="18">
+        <f t="shared" si="109"/>
+        <v>210600</v>
+      </c>
+      <c r="N77" s="19">
+        <f t="shared" si="110"/>
+        <v>187200</v>
+      </c>
       <c r="O77" s="20"/>
-      <c r="P77" s="18"/>
+      <c r="P77" s="18">
+        <f>SUM(P76+M77)</f>
+        <v>1088100</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="19"/>
+      <c r="A78" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="11">
+        <f>260*300</f>
+        <v>78000</v>
+      </c>
+      <c r="F78" s="12">
+        <f t="shared" si="104"/>
+        <v>66300</v>
+      </c>
+      <c r="G78" s="13">
+        <v>70</v>
+      </c>
+      <c r="H78" s="14">
+        <f t="shared" si="105"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I78" s="15">
+        <f t="shared" si="106"/>
+        <v>4641000</v>
+      </c>
+      <c r="J78" s="16">
+        <f>SUM(J76+I78)</f>
+        <v>6298500</v>
+      </c>
+      <c r="K78" s="17">
+        <f t="shared" si="101"/>
+        <v>35100</v>
+      </c>
+      <c r="L78" s="14">
+        <f t="shared" si="108"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M78" s="18">
+        <f t="shared" si="109"/>
+        <v>2457000</v>
+      </c>
+      <c r="N78" s="19">
+        <f t="shared" si="110"/>
+        <v>2184000</v>
+      </c>
       <c r="O78" s="20"/>
-      <c r="P78" s="18"/>
+      <c r="P78" s="18">
+        <f>SUM(P76+M78)</f>
+        <v>3334500</v>
+      </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="19"/>
+      <c r="A79" s="9">
+        <v>44026</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="11">
+        <f>260*90</f>
+        <v>23400</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" si="104"/>
+        <v>19890</v>
+      </c>
+      <c r="G79" s="13">
+        <v>20</v>
+      </c>
+      <c r="H79" s="14">
+        <f t="shared" si="105"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I79" s="15">
+        <f t="shared" si="106"/>
+        <v>397800</v>
+      </c>
+      <c r="J79" s="16">
+        <f t="shared" ref="J79" si="112">SUM(J78+I79)</f>
+        <v>6696300</v>
+      </c>
+      <c r="K79" s="17">
+        <f t="shared" si="101"/>
+        <v>10530</v>
+      </c>
+      <c r="L79" s="14">
+        <f t="shared" si="108"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M79" s="18">
+        <f t="shared" si="109"/>
+        <v>210600</v>
+      </c>
+      <c r="N79" s="19">
+        <f t="shared" si="110"/>
+        <v>187200</v>
+      </c>
       <c r="O79" s="20"/>
-      <c r="P79" s="18"/>
+      <c r="P79" s="18">
+        <f t="shared" ref="P79" si="113">SUM(P78+M79)</f>
+        <v>3545100</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
@@ -4560,13 +4682,67 @@
       <c r="O80" s="20"/>
       <c r="P80" s="18"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C84" s="1" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="18"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="18"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C87" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C87" s="36" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C90" s="36" t="s">
         <v>26</v>
       </c>
     </row>
